--- a/Payslip process/Config/Config.xlsx
+++ b/Payslip process/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFCD8F-3386-4403-9C64-0185CAA0194C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBFE39C-EAC3-4148-B6FD-22862B3E9C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Sheet1</t>
+  </si>
+  <si>
+    <t>payslip_template_employees.xlsx</t>
+  </si>
+  <si>
+    <t>Payslip template</t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -616,7 +622,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Payslip process/Config/Config.xlsx
+++ b/Payslip process/Config/Config.xlsx
@@ -8,21 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBFE39C-EAC3-4148-B6FD-22862B3E9C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEEA3A-BE2E-4B96-8C66-1F75414C89D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +148,27 @@
   </si>
   <si>
     <t>Payslip template</t>
+  </si>
+  <si>
+    <t>Payslip payroll template</t>
+  </si>
+  <si>
+    <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Payslip process\\DataBases\\payslip_template_employees.xlsx</t>
+  </si>
+  <si>
+    <t>Payslip save location</t>
+  </si>
+  <si>
+    <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Payslip process\\Payslips\\</t>
+  </si>
+  <si>
+    <t>URL DKK</t>
+  </si>
+  <si>
+    <t>https://www.xe.com/currencyconverter/convert/?Amount=1&amp;From=GBP&amp;To=DKK</t>
+  </si>
+  <si>
+    <t>Website to scrape DKK conversion rate</t>
   </si>
 </sst>
 </file>
@@ -517,7 +548,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -630,9 +661,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Payslip process/Config/Config.xlsx
+++ b/Payslip process/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEEA3A-BE2E-4B96-8C66-1F75414C89D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D6E4F0-72F6-40EA-9131-CDC49C4CEF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>Website to scrape DKK conversion rate</t>
+  </si>
+  <si>
+    <t>EmployeeTableFilePath</t>
+  </si>
+  <si>
+    <t>EmployeeTableName</t>
+  </si>
+  <si>
+    <t>The filepath of the filled in employee table</t>
+  </si>
+  <si>
+    <t>ConsultatTableName</t>
+  </si>
+  <si>
+    <t>ConsultantTableFilePath</t>
+  </si>
+  <si>
+    <t>The filepath of the filled in consultant table</t>
   </si>
 </sst>
 </file>
@@ -547,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2796,7 +2814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2840,8 +2860,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
